--- a/MONITOR/2021-2/Taller2/Estudiantes.xlsx
+++ b/MONITOR/2021-2/Taller2/Estudiantes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\revisionTrabajos\MONITOR\2021-2\Taller2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UJ\UJ2021-01\Monitorias\revisionTrabajos\MONITOR\2021-2\Taller2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB3F0A5-2261-4C9B-905C-3BD172DD31C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E769213-9E28-47D6-B2F0-041FA0EF8939}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taller2" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Taller2!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -206,7 +203,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,8 +222,14 @@
         <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -363,13 +366,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -401,6 +415,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -422,10 +442,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -504,6 +524,7 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFFF3F3F"/>
       <color rgb="FFFF0000"/>
     </mruColors>
   </colors>
@@ -4352,7 +4373,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E3" sqref="E3"/>
+      <selection pane="topRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -4365,22 +4386,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
       <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="18" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="20" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4400,26 +4421,34 @@
       <c r="E3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="16" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="B4" s="21">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C4" s="21">
+        <v>10</v>
+      </c>
+      <c r="D4" s="21">
+        <v>10</v>
+      </c>
+      <c r="E4" s="21">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="F4" s="10"/>
       <c r="G4" s="8"/>
       <c r="H4" s="12"/>
@@ -4430,10 +4459,10 @@
       <c r="A5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="10"/>
       <c r="G5" s="8"/>
       <c r="H5" s="12"/>
@@ -4444,10 +4473,10 @@
       <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="10"/>
       <c r="G6" s="8"/>
       <c r="H6" s="12"/>
@@ -4514,10 +4543,18 @@
       <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="B11" s="14">
+        <v>9.6</v>
+      </c>
+      <c r="C11" s="14">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="E11" s="6">
+        <v>7.6</v>
+      </c>
       <c r="F11" s="10"/>
       <c r="G11" s="8"/>
       <c r="H11" s="12"/>
@@ -4556,10 +4593,18 @@
       <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="B14" s="21">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C14" s="21">
+        <v>10</v>
+      </c>
+      <c r="D14" s="21">
+        <v>10</v>
+      </c>
+      <c r="E14" s="21">
+        <v>10</v>
+      </c>
       <c r="F14" s="10"/>
       <c r="G14" s="8"/>
       <c r="H14" s="12"/>
@@ -4584,10 +4629,18 @@
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="B16" s="6">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E16" s="6">
+        <v>10</v>
+      </c>
       <c r="F16" s="10"/>
       <c r="G16" s="8"/>
       <c r="H16" s="12"/>
@@ -4598,10 +4651,18 @@
       <c r="A17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="B17" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="C17" s="6">
+        <v>10</v>
+      </c>
+      <c r="D17" s="6">
+        <v>10</v>
+      </c>
+      <c r="E17" s="6">
+        <v>10</v>
+      </c>
       <c r="F17" s="10"/>
       <c r="G17" s="8"/>
       <c r="H17" s="12"/>
@@ -4626,10 +4687,18 @@
       <c r="A19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="B19" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="C19" s="6">
+        <v>10</v>
+      </c>
+      <c r="D19" s="6">
+        <v>10</v>
+      </c>
+      <c r="E19" s="6">
+        <v>10</v>
+      </c>
       <c r="F19" s="10"/>
       <c r="G19" s="8"/>
       <c r="H19" s="12"/>
@@ -4654,10 +4723,18 @@
       <c r="A21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="B21" s="22">
+        <v>10</v>
+      </c>
+      <c r="C21" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D21" s="6">
+        <v>10</v>
+      </c>
+      <c r="E21" s="6">
+        <v>10</v>
+      </c>
       <c r="F21" s="10"/>
       <c r="G21" s="8"/>
       <c r="H21" s="12"/>
@@ -4668,10 +4745,18 @@
       <c r="A22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="B22" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C22" s="6">
+        <v>10</v>
+      </c>
+      <c r="D22" s="6">
+        <v>10</v>
+      </c>
+      <c r="E22" s="6">
+        <v>10</v>
+      </c>
       <c r="F22" s="10"/>
       <c r="G22" s="8"/>
       <c r="H22" s="12"/>

--- a/MONITOR/2021-2/Taller2/Estudiantes.xlsx
+++ b/MONITOR/2021-2/Taller2/Estudiantes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UJ\UJ2021-01\Monitorias\revisionTrabajos\MONITOR\2021-2\Taller2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E769213-9E28-47D6-B2F0-041FA0EF8939}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94CA0F5-AA74-4472-B76A-9B312C1E484D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,6 +421,12 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -441,12 +447,6 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4373,7 +4373,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E10" sqref="E10"/>
+      <selection pane="topRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -4386,22 +4386,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="20" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4421,32 +4421,32 @@
       <c r="E3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="18" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="15">
         <v>9.8000000000000007</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="15">
         <v>10</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="15">
         <v>10</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="15">
         <v>9.8000000000000007</v>
       </c>
       <c r="F4" s="10"/>
@@ -4487,10 +4487,18 @@
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="B7" s="6">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6">
+        <v>10</v>
+      </c>
       <c r="F7" s="10"/>
       <c r="G7" s="8"/>
       <c r="H7" s="12"/>
@@ -4515,10 +4523,18 @@
       <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D9" s="6">
+        <v>6.4</v>
+      </c>
+      <c r="E9" s="6">
+        <v>6.8</v>
+      </c>
       <c r="F9" s="10"/>
       <c r="G9" s="8"/>
       <c r="H9" s="12"/>
@@ -4593,16 +4609,16 @@
       <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="15">
         <v>9.8000000000000007</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="15">
         <v>10</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="15">
         <v>10</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="15">
         <v>10</v>
       </c>
       <c r="F14" s="10"/>
@@ -4615,10 +4631,18 @@
       <c r="A15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="B15" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C15" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="D15" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="E15" s="6">
+        <v>8.6</v>
+      </c>
       <c r="F15" s="10"/>
       <c r="G15" s="8"/>
       <c r="H15" s="12"/>
@@ -4673,10 +4697,18 @@
       <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="B18" s="6">
+        <v>9.4</v>
+      </c>
+      <c r="C18" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D18" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E18" s="6">
+        <v>10</v>
+      </c>
       <c r="F18" s="10"/>
       <c r="G18" s="8"/>
       <c r="H18" s="12"/>
@@ -4709,10 +4741,18 @@
       <c r="A20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="B20" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C20" s="6">
+        <v>10</v>
+      </c>
+      <c r="D20" s="6">
+        <v>10</v>
+      </c>
+      <c r="E20" s="6">
+        <v>10</v>
+      </c>
       <c r="F20" s="10"/>
       <c r="G20" s="8"/>
       <c r="H20" s="12"/>
@@ -4723,7 +4763,7 @@
       <c r="A21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="16">
         <v>10</v>
       </c>
       <c r="C21" s="6">

--- a/MONITOR/2021-2/Taller2/Estudiantes.xlsx
+++ b/MONITOR/2021-2/Taller2/Estudiantes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UJ\UJ2021-01\Monitorias\revisionTrabajos\MONITOR\2021-2\Taller2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94CA0F5-AA74-4472-B76A-9B312C1E484D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A1748C-A8F5-440E-9BA5-D3DBAAB78E14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,10 +122,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -200,6 +201,12 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -378,12 +385,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -448,8 +456,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Millares" xfId="3" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{118876FD-8897-4BC7-B8DD-A4EB498AE39F}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{41B1EFC1-CAD1-47EC-95B1-7A1FE1FB47F7}"/>
@@ -4371,9 +4383,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F9" sqref="F9"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -4459,10 +4471,18 @@
       <c r="A5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="B5" s="13">
+        <v>10</v>
+      </c>
+      <c r="C5" s="13">
+        <v>10</v>
+      </c>
+      <c r="D5" s="13">
+        <v>10</v>
+      </c>
+      <c r="E5" s="13">
+        <v>10</v>
+      </c>
       <c r="F5" s="10"/>
       <c r="G5" s="8"/>
       <c r="H5" s="12"/>
@@ -4473,10 +4493,18 @@
       <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="B6" s="23">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C6" s="23">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D6" s="23">
+        <v>10</v>
+      </c>
+      <c r="E6" s="23">
+        <v>10</v>
+      </c>
       <c r="F6" s="10"/>
       <c r="G6" s="8"/>
       <c r="H6" s="12"/>
@@ -4545,10 +4573,18 @@
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="B10" s="6">
+        <v>9.4</v>
+      </c>
+      <c r="C10" s="6">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6">
+        <v>10</v>
+      </c>
       <c r="F10" s="10"/>
       <c r="G10" s="8"/>
       <c r="H10" s="12"/>
@@ -4581,10 +4617,18 @@
       <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6">
+        <v>10</v>
+      </c>
       <c r="F12" s="10"/>
       <c r="G12" s="8"/>
       <c r="H12" s="12"/>
@@ -4595,10 +4639,18 @@
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="B13" s="6">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6">
+        <v>10</v>
+      </c>
       <c r="F13" s="10"/>
       <c r="G13" s="8"/>
       <c r="H13" s="12"/>
